--- a/biology/Microbiologie/Bordetella/Bordetella.xlsx
+++ b/biology/Microbiologie/Bordetella/Bordetella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bordetella sont un genre de bactéries. Ces germes étaient autrefois rangés parmi les Haemophilus. En réalité, ils n'exigent pas les facteurs de croissance contenus dans le sang : le sang agit comme détoxiquant des milieux de culture.
-Le genre Bordetella comprend 9 espèces[1] :
+Le genre Bordetella comprend 9 espèces :
 Bordetella pertussis (spécifique à l'humain) ;
 Bordetella parapertussis (humain et mouton);
 Bordetella bronchiseptica (mammifères) ;
@@ -522,7 +534,9 @@
           <t>Caractères morphologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des coccobacilles courts (0,5 µm à 1 µm de long et 0,2 à 0,4 µm de large) à Gram négatif, asporulés, mobiles à ciliature péritriche ou immobiles.
 </t>
@@ -553,9 +567,11 @@
           <t>Caractères biochimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont aérobies stricts (à métabolisme respiratoire), à l'exception de B. petrii, capable de métabolisme anaérobie[2]. Ils sont incapables de cataboliser les glucides, leur énergie est fournie par les acides aminés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont aérobies stricts (à métabolisme respiratoire), à l'exception de B. petrii, capable de métabolisme anaérobie. Ils sont incapables de cataboliser les glucides, leur énergie est fournie par les acides aminés.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Caractères culturaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des germes très exigeants. Ainsi, l'isolement des Bordetella nécessite des milieux complexes enrichis en acides gras saturés et en sang (comme le milieu Bordet Gengou). Croissance lente : petites colonies brillantes qui apparaissent en trois jours en moyenne.
 La température optimale de croissance est comprise entre 35 et 37 °C.
@@ -617,7 +635,9 @@
           <t>Caractères génétiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le %GC est compris entre 61 et 70.
 </t>
@@ -648,9 +668,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des parasites obligatoires ne survivant pas longtemps dans le milieu extérieur, à l'exception notable de B. petrii, retrouvée libre dans l'environnement[2]. Ils ont un tropisme principalement des voies respiratoires et sont retrouvés en tant que saprophytes chez les animaux. Les espèces classiques sont responsables de la coqueluche chez l'Homme.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des parasites obligatoires ne survivant pas longtemps dans le milieu extérieur, à l'exception notable de B. petrii, retrouvée libre dans l'environnement. Ils ont un tropisme principalement des voies respiratoires et sont retrouvés en tant que saprophytes chez les animaux. Les espèces classiques sont responsables de la coqueluche chez l'Homme.
 </t>
         </is>
       </c>
@@ -679,9 +701,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme des Bordetella basé sur les travaux de Linz et al. (2016)[1]. Les trois espèces classiques, paraphylétiques, sont réunies en un groupe monophylétique.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme des Bordetella basé sur les travaux de Linz et al. (2016). Les trois espèces classiques, paraphylétiques, sont réunies en un groupe monophylétique.
 </t>
         </is>
       </c>
